--- a/Football match predictions/Statistics/Country statistics.xlsx
+++ b/Football match predictions/Statistics/Country statistics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsl\Documents\Privé\Data Analysis\EK Voorspellingen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsl\Documents\Privé\Data Analysis\Football-match-predictions\Football match predictions\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F1029C-84D9-479F-AA6C-30376467C78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E625F5F1-9479-4220-B882-45AFD3AD516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="9" activeTab="20" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="15" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="25" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="230">
   <si>
     <t>Mexico</t>
   </si>
@@ -10269,10 +10269,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7411AC2-5D21-455D-BE63-80B3767F1FFF}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11134,6 +11134,60 @@
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
+        <v>1795.23</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="3">AVERAGE(L12:L16)</f>
+        <v>1.2</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
         <v>0.8</v>
       </c>
     </row>
@@ -12079,10 +12133,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC26FBD-B83A-45BD-ADA0-0A70FF1AAFE8}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:P19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12511,7 +12565,7 @@
         <v>1.4</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P19" si="2">AVERAGE(M3:M7)</f>
+        <f t="shared" ref="P8:P20" si="2">AVERAGE(M3:M7)</f>
         <v>1</v>
       </c>
     </row>
@@ -13101,12 +13155,66 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(L14:L18)</f>
         <v>2.4</v>
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.XLOOKUP(F20,Rankings!B:B,Rankings!A:A)</f>
+        <v>46</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.XLOOKUP(F20, Rankings!B:B, Rankings!C:C)</f>
+        <v>1468.17</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f>AVERAGE(L15:L19)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -16136,7 +16244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88E5CEA-3262-45D7-BA00-3A22EE12BBE8}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -17336,10 +17444,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFDBCB3-D360-40C8-B08C-914750BA416F}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:P16"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18201,6 +18309,60 @@
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
+        <v>1748.11</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="3">AVERAGE(L12:L16)</f>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
         <v>2</v>
       </c>
     </row>
@@ -18214,10 +18376,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1666DE3-0108-4BD1-8BCD-C23A383A5ADE}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19026,6 +19188,60 @@
       <c r="P15">
         <f t="shared" si="2"/>
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <f>_xlfn.XLOOKUP(F16,Rankings!B:B,Rankings!A:A)</f>
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.XLOOKUP(F16, Rankings!B:B, Rankings!C:C)</f>
+        <v>1501.47</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" ref="O16" si="3">AVERAGE(L11:L15)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16" si="4">AVERAGE(M11:M15)</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -19041,9 +19257,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74565D70-9BAA-4DFF-8CD4-0A8FCCB8554C}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -20175,6 +20393,60 @@
       <c r="P21">
         <f t="shared" si="2"/>
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.XLOOKUP(F22,Rankings!B:B,Rankings!A:A)</f>
+        <v>40</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.XLOOKUP(F22, Rankings!B:B, Rankings!C:C)</f>
+        <v>1495.94</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="3">AVERAGE(L17:L21)</f>
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="4">AVERAGE(M17:M21)</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -20190,9 +20462,11 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC37B67-26A1-487C-8F6E-3E36DA5FFAF0}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -21055,6 +21329,60 @@
       <c r="P16">
         <f t="shared" si="2"/>
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
+        <v>75</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
+        <v>1333.76</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="3">AVERAGE(L12:L16)</f>
+        <v>2.8</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Football match predictions/Statistics/Country statistics.xlsx
+++ b/Football match predictions/Statistics/Country statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsl\Documents\Privé\Data Analysis\Football-match-predictions\Football match predictions\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E625F5F1-9479-4220-B882-45AFD3AD516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8B2AC-1EF3-4F1C-BD67-572F748A490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="15" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="24" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="25" r:id="rId1"/>
@@ -10271,7 +10271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7411AC2-5D21-455D-BE63-80B3767F1FFF}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O19" si="1">AVERAGE(L3:L7)</f>
+        <f t="shared" ref="O8:O18" si="1">AVERAGE(L3:L7)</f>
         <v>1.4</v>
       </c>
       <c r="P8">
@@ -20464,8 +20464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC37B67-26A1-487C-8F6E-3E36DA5FFAF0}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
